--- a/poc-professionnel/ig/ValueSet-causeMortalite-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-causeMortalite-vs.xlsx
@@ -50,7 +50,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-causeMortalite-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-causeMortalite-vs.xlsx
@@ -50,7 +50,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-causeMortalite-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-causeMortalite-vs.xlsx
@@ -50,7 +50,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
